--- a/iris_data_bayes.xlsx
+++ b/iris_data_bayes.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/myproject/baize/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1ED75C-266C-D641-8B15-070DFF4E0D94}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="16905"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あやめ分類" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="22">
   <si>
     <t>x1:がく片</t>
   </si>
@@ -44,11 +45,94 @@
   <si>
     <t>ﾊﾞｰｼﾞﾆｶ</t>
   </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セトナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーシクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がく片</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がく片幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花びら</t>
+    <rPh sb="0" eb="1">
+      <t>ハナb</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花びら幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハナビr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージニカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベイズ式</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セトナ</t>
+    <rPh sb="0" eb="2">
+      <t>ガクヘn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2列目のデータを使用</t>
+    <rPh sb="0" eb="1">
+      <t>レt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花びら</t>
+    <rPh sb="0" eb="1">
+      <t>ハナビr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -438,17 +522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="5" width="10.875" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +554,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>4.3</v>
       </c>
@@ -481,8 +577,22 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(A2:A51)</f>
+        <v>5.0059999999999993</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.VAR.P(A2:A51)</f>
+        <v>0.12176399999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>4.8</v>
       </c>
@@ -498,8 +608,19 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(B2:B51)</f>
+        <v>3.4280000000000013</v>
+      </c>
+      <c r="K3">
+        <f>_xlfn.VAR.P(B2:B51)</f>
+        <v>0.14081599999999453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -515,8 +636,19 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(C2:C51)</f>
+        <v>1.462</v>
+      </c>
+      <c r="K4">
+        <f>_xlfn.VAR.P(C2:C51)</f>
+        <v>2.9556000000000495E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -532,8 +664,19 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(D2:D51)</f>
+        <v>0.24600000000000011</v>
+      </c>
+      <c r="K5">
+        <f>_xlfn.VAR.P(D2:D51)</f>
+        <v>1.088399999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5.2</v>
       </c>
@@ -550,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -566,8 +709,22 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(A52:A101)</f>
+        <v>5.9359999999999982</v>
+      </c>
+      <c r="K7">
+        <f>_xlfn.VAR.P(A52:A101)</f>
+        <v>0.26110400000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -583,8 +740,19 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(B52:B101)</f>
+        <v>2.7699999999999996</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.VAR.P(B52:B101)</f>
+        <v>9.6500000000002917E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>5.8</v>
       </c>
@@ -600,8 +768,19 @@
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(C52:C101)</f>
+        <v>4.26</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.VAR.P(C52:C101)</f>
+        <v>0.21640000000000581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -617,8 +796,19 @@
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(D52:D101)</f>
+        <v>1.3259999999999998</v>
+      </c>
+      <c r="K10">
+        <f>_xlfn.VAR.P(D52:D101)</f>
+        <v>3.8324000000000524E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -635,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>4.7</v>
       </c>
@@ -651,8 +841,22 @@
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(A102:A151)</f>
+        <v>6.5879999999999983</v>
+      </c>
+      <c r="K12">
+        <f>_xlfn.VAR.P(A102:A151)</f>
+        <v>0.39625600000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>5.5</v>
       </c>
@@ -668,8 +872,19 @@
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(B102:B151)</f>
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="K13">
+        <f>_xlfn.VAR.P(B102:B151)</f>
+        <v>0.10192399999999616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -685,8 +900,19 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(C102:C151)</f>
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="K14">
+        <f>_xlfn.VAR.P(C102:C151)</f>
+        <v>0.29849600000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -702,8 +928,19 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(D102:D151)</f>
+        <v>2.0260000000000002</v>
+      </c>
+      <c r="K15">
+        <f>_xlfn.VAR.P(D102:D151)</f>
+        <v>7.3923999999997617E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -720,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -736,8 +973,11 @@
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>5.2</v>
       </c>
@@ -753,8 +993,17 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -770,8 +1019,26 @@
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <f>1*(EXP(-(A2-J2)^2)/2*K2)/SQRT(2*PI()*J2)</f>
+        <v>1.7869876798286541E-2</v>
+      </c>
+      <c r="J19">
+        <f>1*(EXP(-(A2-J7)^2)/2*K7)/SQRT(2*PI()*K7)</f>
+        <v>1.4814066038611853</v>
+      </c>
+      <c r="K19">
+        <f>1*(EXP(-(A2-J12)^2)/2*K12)/SQRT(2*PI()*K12)</f>
+        <v>23.570852384690674</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -787,8 +1054,23 @@
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20">
+        <f>1*(EXP(-(B2-J3)^2)/2*K3)/SQRT(2*PI()*J3)</f>
+        <v>1.8220801108508072E-2</v>
+      </c>
+      <c r="J20">
+        <f>1*(EXP(-(B2-J8)^2)/2*K8)/SQRT(2*PI()*K8)</f>
+        <v>6.5330789259520808E-2</v>
+      </c>
+      <c r="K20">
+        <f>1*(EXP(-(B2-J13)^2)/2*K13)/SQRT(2*PI()*K13)</f>
+        <v>6.3725299140191954E-2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>5.5</v>
       </c>
@@ -804,8 +1086,23 @@
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21">
+        <f>1*(EXP(-(C2-J4)^2)/2*K4)/SQRT(2*PI()*J4)</f>
+        <v>5.558578302065297E-3</v>
+      </c>
+      <c r="J21">
+        <f>1*(EXP(-(C2-J9)^2)/2*K9)/SQRT(2*PI()*K9)</f>
+        <v>2014.6503187323506</v>
+      </c>
+      <c r="K21">
+        <f>1*(EXP(-(C2-J14)^2)/2*K14)/SQRT(2*PI()*K14)</f>
+        <v>44177179.505941935</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -821,8 +1118,23 @@
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22">
+        <f>1*(EXP(-(D2-J5)^2)/2*K5)/SQRT(2*PI()*J5)</f>
+        <v>4.4715539081797125E-3</v>
+      </c>
+      <c r="J22">
+        <f>1*(EXP(-(D2-J10)^2)/2*K10)/SQRT(2*PI()*K10)</f>
+        <v>0.17554687330790586</v>
+      </c>
+      <c r="K22">
+        <f>1*(EXP(-(D2-J15)^2)/2*K15)/SQRT(2*PI()*K15)</f>
+        <v>2.214510566677907</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -839,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -856,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -873,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>5.2</v>
       </c>
@@ -890,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>5.3</v>
       </c>
@@ -907,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>5.4</v>
       </c>
@@ -924,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -941,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>4.8</v>
       </c>
@@ -958,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>4.7</v>
       </c>
@@ -975,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>4.8</v>
       </c>
